--- a/public/models/FICHE D'IDENTIFICATION CENK.xlsx
+++ b/public/models/FICHE D'IDENTIFICATION CENK.xlsx
@@ -1599,7 +1599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1677,9 +1677,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1734,7 +1732,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2175,8 +2172,8 @@
   <sheetPr/>
   <dimension ref="A1:II84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5"/>
@@ -4602,12 +4599,12 @@
       <c r="M67" s="43"/>
     </row>
     <row r="68" ht="15.5" spans="1:13">
-      <c r="A68" s="54"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="16"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="55" t="s">
+      <c r="F68" s="54" t="s">
         <v>212</v>
       </c>
       <c r="G68" s="2"/>
@@ -4619,10 +4616,10 @@
       <c r="M68" s="43"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="56">
+      <c r="A69" s="55">
         <v>43</v>
       </c>
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="56" t="s">
         <v>213</v>
       </c>
       <c r="C69" s="44" t="s">
@@ -4656,10 +4653,10 @@
       <c r="M69" s="43"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="56">
+      <c r="A70" s="55">
         <v>44</v>
       </c>
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="56" t="s">
         <v>219</v>
       </c>
       <c r="C70" s="44" t="s">
@@ -4693,10 +4690,10 @@
       <c r="M70" s="43"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="56">
+      <c r="A71" s="55">
         <v>45</v>
       </c>
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="56" t="s">
         <v>221</v>
       </c>
       <c r="C71" s="44" t="s">
@@ -4730,10 +4727,10 @@
       <c r="M71" s="43"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="56">
+      <c r="A72" s="55">
         <v>46</v>
       </c>
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="56" t="s">
         <v>223</v>
       </c>
       <c r="C72" s="44" t="s">
@@ -4767,7 +4764,7 @@
       <c r="M72" s="43"/>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="54"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="16"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -4782,10 +4779,10 @@
       <c r="M73" s="43"/>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="56">
+      <c r="A74" s="55">
         <v>47</v>
       </c>
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="56" t="s">
         <v>228</v>
       </c>
       <c r="C74" s="44" t="s">
@@ -4826,7 +4823,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
-      <c r="L75" s="59"/>
+      <c r="L75" s="58"/>
       <c r="M75" s="43"/>
     </row>
     <row r="78" spans="1:2">
@@ -4836,7 +4833,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="58"/>
+      <c r="A80" s="57"/>
       <c r="B80" t="s">
         <v>234</v>
       </c>
